--- a/Others/Arduino_Robo_Shield_BOM.xlsx
+++ b/Others/Arduino_Robo_Shield_BOM.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="120" yWindow="105" windowWidth="28695" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,7 +12,7 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="Arduino_Robo_Shield_BOM" localSheetId="0">Sheet1!$A$1:$H$31</definedName>
+    <definedName name="Arduino_Robo_Shield" localSheetId="0">Sheet1!$A$1:$H$31</definedName>
   </definedNames>
   <calcPr calcId="124519"/>
 </workbook>
@@ -20,8 +20,8 @@
 
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <connection id="1" name="Arduino_Robo_Shield_BOM" type="6" refreshedVersion="3" background="1" saveData="1">
-    <textPr codePage="437" sourceFile="D:\GitHub_EE\Robo-Sheild-For-Arduino-ROB-11002\Others\Arduino_Robo_Shield_BOM.csv" semicolon="1">
+  <connection id="1" name="Arduino_Robo_Shield" type="6" refreshedVersion="3" background="1" saveData="1">
+    <textPr codePage="437" sourceFile="H:\PCB_Designes\DIY Kits\Arduino Robot Shield\Arduino_Robo_Shield.csv" semicolon="1">
       <textFields count="8">
         <textField/>
         <textField/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="85">
   <si>
     <t>Id</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>BRD_PWR</t>
+  </si>
+  <si>
+    <t>Price</t>
   </si>
 </sst>
 </file>
@@ -305,12 +308,24 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -325,8 +340,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -337,7 +354,7 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Arduino_Robo_Shield_BOM" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="Arduino_Robo_Shield" connectionId="1" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -625,9 +642,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F31"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G2" sqref="G2:G32"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -639,7 +658,7 @@
     <col min="6" max="6" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -658,8 +677,11 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2">
         <v>1</v>
       </c>
@@ -676,7 +698,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3">
         <v>2</v>
       </c>
@@ -693,7 +715,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4">
         <v>3</v>
       </c>
@@ -710,7 +732,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5">
         <v>4</v>
       </c>
@@ -727,7 +749,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6">
         <v>5</v>
       </c>
@@ -744,7 +766,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7">
         <v>6</v>
       </c>
@@ -761,7 +783,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8">
         <v>7</v>
       </c>
@@ -778,7 +800,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9">
         <v>8</v>
       </c>
@@ -795,7 +817,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10">
         <v>9</v>
       </c>
@@ -812,7 +834,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11">
         <v>10</v>
       </c>
@@ -829,7 +851,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12">
         <v>11</v>
       </c>
@@ -846,7 +868,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13">
         <v>12</v>
       </c>
@@ -863,7 +885,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14">
         <v>13</v>
       </c>
@@ -880,7 +902,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15">
         <v>14</v>
       </c>
@@ -897,7 +919,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1168,6 +1190,15 @@
       <c r="E31" t="s">
         <v>83</v>
       </c>
+    </row>
+    <row r="35" spans="2:5">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="42" spans="2:5">
+      <c r="E42" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
